--- a/data/trans_camb/P23_8_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_8_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,32</t>
+          <t>-3,04; 1,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,55</t>
+          <t>-1,47; 3,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 11,03</t>
+          <t>-0,36; 5,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,83</t>
+          <t>3,31; 10,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,51</t>
+          <t>-2,63; 5,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,6</t>
+          <t>-3,09; 1,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,99</t>
+          <t>-0,77; 4,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,43</t>
+          <t>1,08; 7,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,15</t>
+          <t>-2,13; 4,98</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 3,21</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 0,9</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 3,41</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 5,74</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 7,08</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 3,55</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-15,8%</t>
+          <t>-20,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>179,94%</t>
+          <t>54,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,01%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>106,73%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,31%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>76,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>137,58%</t>
+          <t>13,12%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-2,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-13,85%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25,81%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>66,86%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>45,45%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,42; 40,43</t>
+          <t>-51,62; 35,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 96,91</t>
+          <t>-26,32; 96,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,6; 335,64</t>
+          <t>-7,13; 156,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,45; 40,76</t>
+          <t>34,8; 202,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 102,75</t>
+          <t>-18,68; 55,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,97; 211,0</t>
+          <t>-42,34; 37,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,42; 23,8</t>
+          <t>-10,63; 98,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 80,29</t>
+          <t>15,18; 169,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>76,08; 216,93</t>
+          <t>-16,88; 63,66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-25,2; 30,91</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-38,91; 19,87</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-7,86; 76,74</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>23,43; 129,05</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>16,69; 94,07</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-13,8; 31,74</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,13</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 4,66</t>
+          <t>-3,85; 4,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 1,97</t>
+          <t>-5,01; 1,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 11,31</t>
+          <t>-2,18; 6,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 1,09</t>
+          <t>2,09; 13,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; -0,2</t>
+          <t>-2,7; 10,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 9,53</t>
+          <t>-6,0; 1,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,79</t>
+          <t>-7,34; -0,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -0,03</t>
+          <t>-3,52; 4,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 8,63</t>
+          <t>-3,27; 6,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 5,71</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 1,73</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,22; 0,05</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 4,56</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 8,7</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 6,3</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,95%</t>
+          <t>-15,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>103,94%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-24,71%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-41,18%</t>
+          <t>30,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>-26,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-12,6%</t>
+          <t>-41,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-29,86%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>64,93%</t>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-3,11%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-14,66%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-30,72%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>20,37%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>53,63%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,15%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,15; 113,83</t>
+          <t>-51,16; 104,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,47; 52,51</t>
+          <t>-57,74; 42,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,01; 262,19</t>
+          <t>-33,19; 145,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,66; 18,53</t>
+          <t>15,89; 225,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,53; -2,89</t>
+          <t>-18,78; 131,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 150,54</t>
+          <t>-55,72; 18,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,34; 33,68</t>
+          <t>-69,28; -7,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,79; 0,45</t>
+          <t>-33,46; 80,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,06; 156,9</t>
+          <t>-32,37; 86,59</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-53,05; 86,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-45,11; 33,75</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-56,13; 1,82</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-21,18; 82,77</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 117,71</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-22,54; 74,86</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,54</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,13</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 14,06</t>
+          <t>-4,01; 14,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 12,71</t>
+          <t>-5,43; 8,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-6,57; 8,1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,24; 3,69</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 5,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-7,14; 3,27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 5,62</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 11,71</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,59; 6,04</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 6,52</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 7,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 5,66</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,68; 7,96</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>39,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>55,9%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-24,06%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-27,31%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>60,3%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,54%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>32,01%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13,7%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>34,53%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,25; 480,76</t>
+          <t>-60,52; 436,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,92; 351,47</t>
+          <t>-60,59; 237,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-70,14; 237,57</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-76,81; 109,62</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,34; 161,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-74,78; 99,54</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-57,65; 151,97</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-35,6; 270,39</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-49,66; 141,02</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-33,84; 150,88</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-53,56; 147,88</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-42,32; 122,28</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-34,82; 169,31</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,49</t>
+          <t>-2,27; 2,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,65</t>
+          <t>-1,87; 1,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,43; 9,75</t>
+          <t>-0,37; 4,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 0,67</t>
+          <t>3,83; 10,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,64</t>
+          <t>-1,33; 5,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,57</t>
+          <t>-3,51; 0,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,78</t>
+          <t>-2,39; 1,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,51</t>
+          <t>0,5; 5,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,91</t>
+          <t>-1,56; 4,19</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 2,68</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 0,6</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 1,27</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 4,13</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 6,35</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 3,05</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>140,78%</t>
+          <t>38,16%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-17,47%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,86%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>75,14%</t>
+          <t>-19,12%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,72%</t>
+          <t>-4,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>45,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>103,09%</t>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-2,38%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-11,76%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-0,94%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>41,94%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>48,4%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 58,22</t>
+          <t>-35,72; 52,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 67,14</t>
+          <t>-27,81; 44,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>70,24; 227,27</t>
+          <t>-9,02; 94,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,64; 11,85</t>
+          <t>40,83; 165,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 31,05</t>
+          <t>-10,05; 53,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,05; 132,1</t>
+          <t>-41,55; 9,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 15,33</t>
+          <t>-29,86; 29,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 29,2</t>
+          <t>6,72; 96,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>60,87; 151,11</t>
+          <t>-13,93; 48,37</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-23,58; 25,51</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-31,91; 10,81</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-21,34; 23,17</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 75,06</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>21,06; 82,01</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; 28,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
